--- a/Assets/SettingParam/連射型ノード設定.xlsx
+++ b/Assets/SettingParam/連射型ノード設定.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tairo\Unity\BombCrash\Assets\SettingParam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB935936-1E67-419B-B216-CE99AC2E1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5AE770-F7AE-49D8-87CA-3ED6F35E1AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{257707A3-3DA5-47F5-BC45-9CD54B86F5B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Param</t>
     <phoneticPr fontId="2"/>
@@ -115,6 +116,85 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Waveポイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>最高どの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まで行けたかでもらえるポイントが変動する</t>
+    </r>
+  </si>
+  <si>
+    <t>スクラップの量</t>
+    <rPh sb="6" eb="7">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵を倒したら落ちるスクラップの量</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>研究コスト</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消費量を削減する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクゲン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -123,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +227,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,14 +301,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -240,13 +334,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4647</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>4646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4330</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>233795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -637,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D4A7ED-E5F3-4601-89DF-9E34271E4BFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -694,63 +788,162 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>-0.15</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="D5" s="1">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D6" s="1">
-        <v>300</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>450</v>
+      </c>
+      <c r="D7" s="1">
+        <v>30</v>
+      </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D8"/>
       <c r="E8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C4A6A1-86DA-487D-8A9E-C2403BDA575C}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-0.15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>450</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
